--- a/集中式和分布式.xlsx
+++ b/集中式和分布式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>win 10</t>
+  </si>
   <si>
     <t>单体应用</t>
+  </si>
+  <si>
+    <t>win 7 环境有中文乱码问题</t>
+  </si>
+  <si>
+    <t>解决方案：</t>
   </si>
   <si>
     <t>所有的请求</t>
@@ -59,12 +68,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,28 +83,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,15 +97,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,9 +134,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,45 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +172,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -223,6 +209,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,7 +235,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +289,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,66 +337,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,13 +349,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,37 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,38 +432,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,13 +462,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,159 +500,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -761,8 +766,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="1226820"/>
-          <a:ext cx="3749040" cy="3253740"/>
+          <a:off x="5242560" y="1158240"/>
+          <a:ext cx="4160520" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -818,8 +823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4968240" y="1607820"/>
-          <a:ext cx="958850" cy="449580"/>
+          <a:off x="5516880" y="1516380"/>
+          <a:ext cx="1027430" cy="415290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,8 +878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4950460" y="2367280"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="5499100" y="2228850"/>
+          <a:ext cx="1057910" cy="416560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1027,8 +1032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4947920" y="3164840"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="5496560" y="2970530"/>
+          <a:ext cx="1057910" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1181,8 +1186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4937760" y="3886200"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="5486400" y="3646170"/>
+          <a:ext cx="1057910" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,8 +1340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6408420" y="1615440"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="7094220" y="1524000"/>
+          <a:ext cx="1057910" cy="415290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1489,8 +1494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6428740" y="2405380"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="7114540" y="2256790"/>
+          <a:ext cx="1126490" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,8 +1648,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1645920" y="2804160"/>
-          <a:ext cx="2575560" cy="0"/>
+          <a:off x="1783080" y="2632710"/>
+          <a:ext cx="2849880" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1690,8 +1695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10957560" y="1889760"/>
-          <a:ext cx="1623060" cy="2004060"/>
+          <a:off x="12123420" y="1775460"/>
+          <a:ext cx="1828800" cy="1878330"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1747,8 +1752,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8930640" y="2827020"/>
-          <a:ext cx="1935480" cy="0"/>
+          <a:off x="9890760" y="2655570"/>
+          <a:ext cx="2141220" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1794,8 +1799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6786880" y="6748780"/>
-          <a:ext cx="958850" cy="449580"/>
+          <a:off x="7472680" y="6337300"/>
+          <a:ext cx="1096010" cy="415290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1948,8 +1953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6769100" y="7508240"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="7454900" y="7039610"/>
+          <a:ext cx="1126490" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2102,8 +2107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6766560" y="8305800"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="7452360" y="7791450"/>
+          <a:ext cx="1126490" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2256,8 +2261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6756400" y="9027160"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="7442200" y="8467090"/>
+          <a:ext cx="1126490" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,8 +2415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8227060" y="6756400"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="9118600" y="6343650"/>
+          <a:ext cx="1057910" cy="416560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2564,8 +2569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8247380" y="7546340"/>
-          <a:ext cx="989330" cy="449580"/>
+          <a:off x="9138920" y="7077710"/>
+          <a:ext cx="1057910" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2718,8 +2723,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2354580" y="7734300"/>
-          <a:ext cx="1905000" cy="0"/>
+          <a:off x="2560320" y="7254240"/>
+          <a:ext cx="2110740" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2765,8 +2770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4472940" y="6850380"/>
-          <a:ext cx="1363980" cy="2186940"/>
+          <a:off x="4953000" y="6427470"/>
+          <a:ext cx="1501140" cy="2049780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2802,11 +2807,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>发现</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>中心（网关）</a:t>
+            <a:t>发现中心（网关）</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2834,8 +2835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6088380" y="6941820"/>
-          <a:ext cx="632460" cy="251460"/>
+          <a:off x="6705600" y="6515100"/>
+          <a:ext cx="701040" cy="232410"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2882,8 +2883,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6042660" y="7551420"/>
-          <a:ext cx="571500" cy="175260"/>
+          <a:off x="6659880" y="7082790"/>
+          <a:ext cx="640080" cy="163830"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2929,8 +2930,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5996940" y="7909560"/>
-          <a:ext cx="647700" cy="563880"/>
+          <a:off x="6614160" y="7418070"/>
+          <a:ext cx="716280" cy="529590"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2977,8 +2978,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6035040" y="8572500"/>
-          <a:ext cx="655320" cy="601980"/>
+          <a:off x="6652260" y="8046720"/>
+          <a:ext cx="723900" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3025,8 +3026,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2415540" y="8313420"/>
-          <a:ext cx="1752600" cy="7620"/>
+          <a:off x="2621280" y="7799070"/>
+          <a:ext cx="1958340" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3072,8 +3073,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10535285" y="6741160"/>
-          <a:ext cx="755015" cy="967740"/>
+          <a:off x="11701145" y="6329680"/>
+          <a:ext cx="823595" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3228,8 +3229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10555605" y="7896860"/>
-          <a:ext cx="755015" cy="967740"/>
+          <a:off x="11721465" y="7405370"/>
+          <a:ext cx="823595" cy="910590"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3384,8 +3385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11574145" y="6728460"/>
-          <a:ext cx="755015" cy="967740"/>
+          <a:off x="12808585" y="6316980"/>
+          <a:ext cx="823595" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3540,8 +3541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11655425" y="7907020"/>
-          <a:ext cx="755015" cy="967740"/>
+          <a:off x="12889865" y="7415530"/>
+          <a:ext cx="892175" cy="910590"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3696,8 +3697,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10332720" y="6576060"/>
-          <a:ext cx="2377440" cy="2644140"/>
+          <a:off x="11430000" y="6172200"/>
+          <a:ext cx="2651760" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3767,8 +3768,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9311640" y="7025640"/>
-          <a:ext cx="830580" cy="0"/>
+          <a:off x="10340340" y="6591300"/>
+          <a:ext cx="899160" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3814,8 +3815,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8145780" y="8656320"/>
-          <a:ext cx="1981200" cy="7620"/>
+          <a:off x="9037320" y="8119110"/>
+          <a:ext cx="2186940" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4131,75 +4132,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E5:J57"/>
+  <dimension ref="C4:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
+    <row r="4" spans="3:5">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
     <row r="5" spans="10:10">
       <c r="J5" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4216,7 +4240,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4233,7 +4257,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
